--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化载荷数据库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化载荷数据库制作工具弹窗.xlsx
@@ -1090,7 +1090,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="169">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1725,6 +1725,10 @@
   </si>
   <si>
     <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2201,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2217,15 +2221,16 @@
     <col min="13" max="14" width="10.875" style="16"/>
     <col min="15" max="15" width="7.625" style="17" customWidth="1"/>
     <col min="16" max="16" width="10.875" style="15"/>
-    <col min="17" max="22" width="7.375" style="15" customWidth="1"/>
-    <col min="23" max="23" width="17.125" style="15" customWidth="1"/>
-    <col min="24" max="24" width="5.625" style="15" customWidth="1"/>
-    <col min="25" max="25" width="10.875" style="15"/>
-    <col min="26" max="27" width="10.875" style="16"/>
-    <col min="28" max="16384" width="10.875" style="15"/>
+    <col min="17" max="17" width="13.5" style="7" customWidth="1"/>
+    <col min="18" max="23" width="7.375" style="15" customWidth="1"/>
+    <col min="24" max="24" width="17.125" style="15" customWidth="1"/>
+    <col min="25" max="25" width="5.625" style="15" customWidth="1"/>
+    <col min="26" max="26" width="10.875" style="15"/>
+    <col min="27" max="28" width="10.875" style="16"/>
+    <col min="29" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2274,11 +2279,14 @@
       <c r="P1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="11" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2327,20 +2335,51 @@
       <c r="P2" s="10">
         <v>3</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="Y2" s="13"/>
+      <c r="W2" s="12"/>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="14"/>
+      <c r="AA2" s="13"/>
       <c r="AB2" s="14"/>
-      <c r="AC2" s="15"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="15"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="Q12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 Q3:Q1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
@@ -2356,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2828,10 +2867,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2845,16 +2884,17 @@
     <col min="14" max="14" width="6" style="17" customWidth="1"/>
     <col min="15" max="15" width="10.875" style="16"/>
     <col min="16" max="17" width="7.625" style="17" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="15"/>
-    <col min="19" max="24" width="7.375" style="15" customWidth="1"/>
-    <col min="25" max="25" width="17.125" style="15" customWidth="1"/>
-    <col min="26" max="26" width="5.625" style="15" customWidth="1"/>
-    <col min="27" max="27" width="10.875" style="15"/>
-    <col min="28" max="29" width="10.875" style="16"/>
-    <col min="30" max="16384" width="10.875" style="15"/>
+    <col min="18" max="18" width="13.5" style="7" customWidth="1"/>
+    <col min="19" max="19" width="10.875" style="15"/>
+    <col min="20" max="25" width="7.375" style="15" customWidth="1"/>
+    <col min="26" max="26" width="17.125" style="15" customWidth="1"/>
+    <col min="27" max="27" width="5.625" style="15" customWidth="1"/>
+    <col min="28" max="28" width="10.875" style="15"/>
+    <col min="29" max="30" width="10.875" style="16"/>
+    <col min="31" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2906,11 +2946,14 @@
       <c r="Q1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="11" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2962,17 +3005,18 @@
       <c r="Q2" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="Z2" s="13"/>
+      <c r="X2" s="12"/>
       <c r="AA2" s="13"/>
-      <c r="AB2" s="14"/>
+      <c r="AB2" s="13"/>
       <c r="AC2" s="14"/>
-      <c r="AD2" s="15"/>
-    </row>
-    <row r="3" spans="1:30" s="13" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="15"/>
+    </row>
+    <row r="3" spans="1:31" s="13" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -3024,19 +3068,20 @@
       <c r="Q3" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="11"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="2"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="12"/>
       <c r="Y3" s="11"/>
-      <c r="AB3" s="14"/>
+      <c r="Z3" s="11"/>
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
-    </row>
-    <row r="4" spans="1:30" s="11" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE3" s="14"/>
+    </row>
+    <row r="4" spans="1:31" s="11" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -3084,18 +3129,43 @@
       <c r="Q4" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="W4" s="12"/>
-      <c r="Z4" s="13"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="7"/>
+      <c r="X4" s="12"/>
       <c r="AA4" s="13"/>
-      <c r="AB4" s="14"/>
+      <c r="AB4" s="13"/>
       <c r="AC4" s="14"/>
-      <c r="AD4" s="15"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="15"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="R12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 R3:R1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
@@ -3110,10 +3180,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3129,16 +3199,17 @@
     <col min="14" max="14" width="6" style="17" customWidth="1"/>
     <col min="15" max="15" width="10.875" style="16"/>
     <col min="16" max="17" width="7.625" style="17" customWidth="1"/>
-    <col min="18" max="18" width="7.375" style="15" customWidth="1"/>
-    <col min="19" max="19" width="10.875" style="16"/>
-    <col min="20" max="20" width="17.125" style="15" customWidth="1"/>
-    <col min="21" max="21" width="5.625" style="15" customWidth="1"/>
-    <col min="22" max="22" width="10.875" style="15"/>
-    <col min="23" max="24" width="10.875" style="16"/>
-    <col min="25" max="16384" width="10.875" style="15"/>
+    <col min="18" max="18" width="13.5" style="7" customWidth="1"/>
+    <col min="19" max="19" width="7.375" style="15" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="16"/>
+    <col min="21" max="21" width="17.125" style="15" customWidth="1"/>
+    <col min="22" max="22" width="5.625" style="15" customWidth="1"/>
+    <col min="23" max="23" width="10.875" style="15"/>
+    <col min="24" max="25" width="10.875" style="16"/>
+    <col min="26" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3190,11 +3261,14 @@
       <c r="Q1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="13" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" s="13" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -3244,11 +3318,12 @@
       <c r="Q2" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>42</v>
       </c>
@@ -3300,11 +3375,12 @@
       <c r="Q3" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -3356,11 +3432,12 @@
       <c r="Q4" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -3412,11 +3489,12 @@
       <c r="Q5" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -3468,11 +3546,12 @@
       <c r="Q6" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -3511,18 +3590,32 @@
         <v>100</v>
       </c>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L8" s="15"/>
       <c r="M8" s="16"/>
       <c r="N8" s="17"/>
       <c r="O8" s="16"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
+      <c r="R8" s="3"/>
+      <c r="W8" s="15"/>
       <c r="X8" s="16"/>
-      <c r="Y8" s="15"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="R12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3530,7 +3623,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 R3:R1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3542,10 +3635,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3558,10 +3651,11 @@
     <col min="14" max="14" width="6" style="17" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
     <col min="16" max="17" width="7.625" style="17" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="16"/>
+    <col min="18" max="18" width="13.5" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3613,11 +3707,14 @@
       <c r="Q1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
@@ -3668,8 +3765,9 @@
         <v>100</v>
       </c>
       <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
@@ -3721,11 +3819,12 @@
       <c r="Q3" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -3777,11 +3876,12 @@
       <c r="Q4" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -3833,11 +3933,12 @@
       <c r="Q5" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -3889,14 +3990,33 @@
       <c r="Q6" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 R3:R1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化载荷数据库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化载荷数据库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -1090,7 +1090,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="166">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1249,10 +1249,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不拼接路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pck005</t>
   </si>
   <si>
@@ -1260,10 +1256,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>拼接路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pck006</t>
   </si>
   <si>
@@ -1272,10 +1264,6 @@
   </si>
   <si>
     <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不拼接路径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1422,10 +1410,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>\update_Htail.fem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1、选择载荷Excel文件文本框输入为空；
 2、载荷数据保存路径文本框手动输入准确的路径；
 3、点击“开始制作”按钮。</t>
@@ -1729,6 +1713,10 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\update_Htail.fem]拼接路径[</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2241,16 +2229,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -2271,16 +2259,16 @@
         <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>23</v>
@@ -2291,10 +2279,10 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -2315,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>27</v>
@@ -2324,10 +2312,10 @@
         <v>28</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>29</v>
@@ -2395,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
@@ -2409,73 +2397,73 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>20</v>
@@ -2484,16 +2472,16 @@
         <v>21</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>23</v>
@@ -2501,88 +2489,88 @@
     </row>
     <row r="2" spans="1:32" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC2" s="10" t="s">
         <v>29</v>
@@ -2591,10 +2579,10 @@
         <v>3</v>
       </c>
       <c r="AE2" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2633,45 +2621,45 @@
     <row r="1" spans="1:7" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2679,45 +2667,45 @@
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2725,27 +2713,27 @@
         <v>12</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -2768,94 +2756,94 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="F7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2905,16 +2893,16 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -2935,19 +2923,19 @@
         <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>23</v>
@@ -2958,10 +2946,10 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -2982,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>27</v>
@@ -2991,10 +2979,10 @@
         <v>28</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>29</v>
@@ -3003,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="10" t="s">
@@ -3021,10 +3009,10 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -3045,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>27</v>
@@ -3054,10 +3042,10 @@
         <v>28</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>29</v>
@@ -3066,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="2"/>
@@ -3086,10 +3074,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3106,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>27</v>
@@ -3115,10 +3103,10 @@
         <v>33</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>29</v>
@@ -3127,7 +3115,7 @@
         <v>0.5</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="7"/>
@@ -3182,8 +3170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3220,16 +3208,16 @@
         <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -3250,19 +3238,19 @@
         <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>23</v>
@@ -3273,10 +3261,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
@@ -3295,7 +3283,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>40</v>
@@ -3304,10 +3292,10 @@
         <v>33</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>29</v>
@@ -3316,25 +3304,23 @@
         <v>3</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R2" s="2"/>
-      <c r="S2" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -3352,19 +3338,19 @@
         <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>29</v>
@@ -3373,25 +3359,23 @@
         <v>3</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
@@ -3406,10 +3390,10 @@
         <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>40</v>
@@ -3418,10 +3402,10 @@
         <v>33</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>29</v>
@@ -3430,25 +3414,23 @@
         <v>0.5</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
@@ -3466,19 +3448,19 @@
         <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>29</v>
@@ -3487,25 +3469,23 @@
         <v>0.5</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
@@ -3520,10 +3500,10 @@
         <v>26</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>27</v>
@@ -3532,10 +3512,10 @@
         <v>33</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>29</v>
@@ -3544,22 +3524,20 @@
         <v>0.5</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R6" s="3"/>
-      <c r="S6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3569,16 +3547,16 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>29</v>
@@ -3587,7 +3565,7 @@
         <v>0.5</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -3660,22 +3638,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -3687,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>20</v>
@@ -3696,19 +3674,19 @@
         <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>23</v>
@@ -3716,13 +3694,13 @@
     </row>
     <row r="2" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -3735,13 +3713,13 @@
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>27</v>
@@ -3750,10 +3728,10 @@
         <v>33</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>29</v>
@@ -3762,20 +3740,20 @@
         <v>3</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -3784,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -3793,10 +3771,10 @@
         <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>27</v>
@@ -3805,10 +3783,10 @@
         <v>33</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>29</v>
@@ -3817,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
@@ -3826,13 +3804,13 @@
     </row>
     <row r="4" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -3850,10 +3828,10 @@
         <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>27</v>
@@ -3862,10 +3840,10 @@
         <v>33</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>29</v>
@@ -3874,7 +3852,7 @@
         <v>0.5</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
@@ -3883,16 +3861,16 @@
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -3910,7 +3888,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>27</v>
@@ -3919,10 +3897,10 @@
         <v>33</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>29</v>
@@ -3931,7 +3909,7 @@
         <v>0.5</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
@@ -3940,19 +3918,19 @@
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -3964,10 +3942,10 @@
         <v>26</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>27</v>
@@ -3976,10 +3954,10 @@
         <v>33</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>29</v>
@@ -3988,7 +3966,7 @@
         <v>0.5</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化载荷数据库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化载荷数据库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -1090,7 +1090,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="166">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2381,15 +2381,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="32" max="32" width="13.5" style="7" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="6" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="6" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2483,11 +2486,14 @@
       <c r="AE1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>136</v>
       </c>
@@ -2581,9 +2587,40 @@
       <c r="AE2" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="10" t="s">
         <v>144</v>
       </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF3" s="3"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF4" s="3"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF5" s="3"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF6" s="3"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF7" s="3"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2591,7 +2628,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z2">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1 AF3:AF1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3170,7 +3207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S2" sqref="S2:S6"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化载荷数据库制作工具弹窗.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/载荷信息/自动化载荷数据库制作工具弹窗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -552,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -606,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -633,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -657,7 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -759,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -785,7 +785,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -813,7 +813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -840,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="165">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1140,10 +1140,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1250,10 +1246,6 @@
   </si>
   <si>
     <t>pck005</t>
-  </si>
-  <si>
-    <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pck006</t>
@@ -1717,6 +1709,10 @@
   </si>
   <si>
     <t>\update_Htail.fem]拼接路径[</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1834,7 +1830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1888,6 +1884,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2229,103 +2228,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="11" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="P2" s="10">
         <v>3</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W2" s="12"/>
       <c r="Z2" s="13"/>
@@ -2383,7 +2382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
@@ -2400,196 +2399,196 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="15" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="19" t="s">
         <v>141</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" s="10">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="19" t="s">
-        <v>143</v>
       </c>
       <c r="AF2" s="2"/>
       <c r="AG2" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
@@ -2642,7 +2641,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2658,45 +2657,45 @@
     <row r="1" spans="1:7" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2704,73 +2703,73 @@
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="8">
         <v>0</v>
@@ -2793,94 +2792,94 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="G8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="D9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2892,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection activeCell="S1" sqref="S1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2903,297 +2902,288 @@
     <col min="1" max="1" width="8.125" style="15" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="15" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="15" customWidth="1"/>
-    <col min="4" max="11" width="7.375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="15"/>
-    <col min="13" max="13" width="10.875" style="16"/>
-    <col min="14" max="14" width="6" style="17" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="16"/>
-    <col min="16" max="17" width="7.625" style="17" customWidth="1"/>
-    <col min="18" max="18" width="13.5" style="7" customWidth="1"/>
-    <col min="19" max="19" width="10.875" style="15"/>
-    <col min="20" max="25" width="7.375" style="15" customWidth="1"/>
-    <col min="26" max="26" width="17.125" style="15" customWidth="1"/>
-    <col min="27" max="27" width="5.625" style="15" customWidth="1"/>
-    <col min="28" max="28" width="10.875" style="15"/>
-    <col min="29" max="30" width="10.875" style="16"/>
-    <col min="31" max="16384" width="10.875" style="15"/>
+    <col min="4" max="5" width="7.375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="15"/>
+    <col min="7" max="7" width="10.875" style="16"/>
+    <col min="8" max="8" width="6" style="17" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="16"/>
+    <col min="10" max="11" width="7.625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="7" customWidth="1"/>
+    <col min="13" max="24" width="7.375" style="15" customWidth="1"/>
+    <col min="25" max="25" width="17.125" style="15" customWidth="1"/>
+    <col min="26" max="26" width="5.625" style="15" customWidth="1"/>
+    <col min="27" max="27" width="10.875" style="15"/>
+    <col min="28" max="29" width="10.875" style="16"/>
+    <col min="30" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="10">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="11" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="12"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="15"/>
+    </row>
+    <row r="3" spans="1:30" s="13" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="H3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="10">
+        <v>3</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="12"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="15"/>
-    </row>
-    <row r="3" spans="1:31" s="13" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="2"/>
+      <c r="P3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
+      <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
       <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-    </row>
-    <row r="4" spans="1:31" s="11" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:30" s="11" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="10">
+      <c r="G4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="10">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="7"/>
-      <c r="X4" s="12"/>
+      <c r="K4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="12"/>
+      <c r="Z4" s="13"/>
       <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
+      <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="15"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="R12" s="3"/>
+      <c r="AD4" s="15"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="L12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 R3:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 L3:L1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3205,10 +3195,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3216,25 +3206,23 @@
     <col min="1" max="1" width="8.125" style="15" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="15" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="15" customWidth="1"/>
-    <col min="4" max="9" width="7.375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="23.125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="7.375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="15"/>
-    <col min="13" max="13" width="10.875" style="16"/>
-    <col min="14" max="14" width="6" style="17" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="16"/>
-    <col min="16" max="17" width="7.625" style="17" customWidth="1"/>
-    <col min="18" max="18" width="13.5" style="7" customWidth="1"/>
-    <col min="19" max="19" width="7.375" style="15" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="16"/>
-    <col min="21" max="21" width="17.125" style="15" customWidth="1"/>
-    <col min="22" max="22" width="5.625" style="15" customWidth="1"/>
-    <col min="23" max="23" width="10.875" style="15"/>
-    <col min="24" max="25" width="10.875" style="16"/>
-    <col min="26" max="16384" width="10.875" style="15"/>
+    <col min="4" max="4" width="23.125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="15"/>
+    <col min="7" max="7" width="10.875" style="16"/>
+    <col min="8" max="8" width="6" style="17" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="16"/>
+    <col min="10" max="11" width="7.625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="7" customWidth="1"/>
+    <col min="13" max="18" width="7.375" style="15" customWidth="1"/>
+    <col min="19" max="19" width="17.125" style="15" customWidth="1"/>
+    <col min="20" max="20" width="5.625" style="15" customWidth="1"/>
+    <col min="21" max="21" width="10.875" style="15"/>
+    <col min="22" max="23" width="10.875" style="16"/>
+    <col min="24" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="6" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3242,403 +3230,394 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:24" s="13" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="10">
+        <v>3</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="13" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="10">
+        <v>3</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="R5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="10">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="10">
+    </row>
+    <row r="7" spans="1:24" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="10">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="Q7" s="18" t="s">
-        <v>96</v>
-      </c>
+      <c r="K7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="3"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="15"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="R12" s="3"/>
+    </row>
+    <row r="8" spans="1:24" s="11" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="3"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="15"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="L12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 R3:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 L3:L1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3675,69 +3654,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -3750,47 +3729,47 @@
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P2" s="10">
         <v>3</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -3799,40 +3778,40 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="10">
         <v>3</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
@@ -3841,13 +3820,13 @@
     </row>
     <row r="4" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -3862,34 +3841,34 @@
         <v>3</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P4" s="10">
         <v>0.5</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
@@ -3898,16 +3877,16 @@
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -3919,34 +3898,34 @@
         <v>3</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P5" s="10">
         <v>0.5</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
@@ -3955,19 +3934,19 @@
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -3976,34 +3955,34 @@
         <v>3</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="10">
         <v>0.5</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
